--- a/router/exportFiles/all_pay_list.xlsx
+++ b/router/exportFiles/all_pay_list.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,47 +422,27 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>12345678</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1607400001</v>
+        <v>1607400004</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>250</v>
+        <v>789</v>
       </c>
       <c r="F3" t="str">
-        <v>12345678</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1607400003</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>890</v>
-      </c>
-      <c r="F4" t="str">
-        <v>10000002</v>
+        <v>10000003</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/router/exportFiles/all_pay_list.xlsx
+++ b/router/exportFiles/all_pay_list.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,27 +422,87 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>3</v>
+        <v>12345678</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
+        <v>1607400001</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>250</v>
+      </c>
+      <c r="F3" t="str">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1607400003</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>890</v>
+      </c>
+      <c r="F4" t="str">
+        <v>10000002</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>1607400004</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>789</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F5" t="str">
         <v>10000003</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1607400005</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>562</v>
+      </c>
+      <c r="F6" t="str">
+        <v>10000004</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
   </ignoredErrors>
 </worksheet>
 </file>